--- a/GO课程安排.xlsx
+++ b/GO课程安排.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\工作文件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\gocode\src\study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDEA6FD3-FD7E-48F2-BBCE-380F91E99289}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06FDB9D-ED78-49BF-83FB-F61E85B08298}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29145" yWindow="1230" windowWidth="21600" windowHeight="11385" xr2:uid="{4D8938B0-7B2C-4314-8338-BB3D63A991B9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D8938B0-7B2C-4314-8338-BB3D63A991B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -451,7 +451,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -558,5 +558,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/GO课程安排.xlsx
+++ b/GO课程安排.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\gocode\src\study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06FDB9D-ED78-49BF-83FB-F61E85B08298}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987C8E24-0F8F-46D1-A8F8-E1A8E0C11240}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D8938B0-7B2C-4314-8338-BB3D63A991B9}"/>
+    <workbookView xWindow="0" yWindow="885" windowWidth="21600" windowHeight="11385" xr2:uid="{4D8938B0-7B2C-4314-8338-BB3D63A991B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>课程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>方法声明、接口声明及使用、接口断言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数组、切片 make、new 函数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,6 +80,18 @@
   </si>
   <si>
     <t>go build 、go test 、 go get 等命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法声明、继承、接口声明及使用、接口断言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库连接方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rancher页面框架 mux</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805BC6A4-76EB-4F3A-B180-30E55E047DAF}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -496,7 +504,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -528,7 +536,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -536,7 +544,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -544,7 +552,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -552,7 +560,23 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
